--- a/dataanalysis/data/predictions/1200/08261149_1152.xlsx
+++ b/dataanalysis/data/predictions/1200/08261149_1152.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="181">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-26</t>
   </si>
   <si>
@@ -554,12 +557,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -917,13 +914,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AI97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,19 +1023,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-0.41</v>
@@ -1056,7 +1056,7 @@
         <v>65786.23</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -1097,8 +1097,23 @@
       <c r="W2">
         <v>-0.4</v>
       </c>
+      <c r="X2">
+        <v>-0.17</v>
+      </c>
+      <c r="Y2">
+        <v>12.37</v>
+      </c>
+      <c r="Z2">
+        <v>1.73</v>
+      </c>
       <c r="AC2" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1106,22 +1121,25 @@
       <c r="AG2">
         <v>1.712493896484375</v>
       </c>
-      <c r="AH2" t="s">
-        <v>180</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300033</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>3.18</v>
@@ -1139,7 +1157,7 @@
         <v>438927.62</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -1180,8 +1198,23 @@
       <c r="W3">
         <v>-0.11</v>
       </c>
+      <c r="X3">
+        <v>-0.46</v>
+      </c>
+      <c r="Y3">
+        <v>420</v>
+      </c>
+      <c r="Z3">
+        <v>2.18</v>
+      </c>
       <c r="AC3" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1189,22 +1222,25 @@
       <c r="AG3">
         <v>8.077850341796875</v>
       </c>
-      <c r="AH3" t="s">
-        <v>180</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300047</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>3.93</v>
@@ -1222,7 +1258,7 @@
         <v>219009.79</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1263,8 +1299,23 @@
       <c r="W4">
         <v>-0.22</v>
       </c>
+      <c r="X4">
+        <v>-6.33</v>
+      </c>
+      <c r="Y4">
+        <v>20.09</v>
+      </c>
+      <c r="Z4">
+        <v>-1.37</v>
+      </c>
       <c r="AC4" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1272,22 +1323,25 @@
       <c r="AG4">
         <v>29.96857833862305</v>
       </c>
-      <c r="AH4" t="s">
-        <v>180</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300057</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>4.1</v>
@@ -1305,7 +1359,7 @@
         <v>74451.78</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1346,8 +1400,23 @@
       <c r="W5">
         <v>0.22</v>
       </c>
+      <c r="X5">
+        <v>-5.71</v>
+      </c>
+      <c r="Y5">
+        <v>6.95</v>
+      </c>
+      <c r="Z5">
+        <v>1.31</v>
+      </c>
       <c r="AC5" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1355,22 +1424,25 @@
       <c r="AG5">
         <v>9.056083679199219</v>
       </c>
-      <c r="AH5" t="s">
-        <v>180</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300059</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.35</v>
@@ -1388,7 +1460,7 @@
         <v>870565.38</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -1429,8 +1501,23 @@
       <c r="W6">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X6">
+        <v>-2.58</v>
+      </c>
+      <c r="Y6">
+        <v>28.45</v>
+      </c>
+      <c r="Z6">
+        <v>0.42</v>
+      </c>
       <c r="AC6" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1438,22 +1525,25 @@
       <c r="AG6">
         <v>4.55082368850708</v>
       </c>
-      <c r="AH6" t="s">
-        <v>180</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300066</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-4.89</v>
@@ -1471,7 +1561,7 @@
         <v>93486.60000000001</v>
       </c>
       <c r="J7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K7">
         <v>14</v>
@@ -1512,8 +1602,23 @@
       <c r="W7">
         <v>-0.32</v>
       </c>
+      <c r="X7">
+        <v>2.78</v>
+      </c>
+      <c r="Y7">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>2.99</v>
+      </c>
       <c r="AC7" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1521,22 +1626,25 @@
       <c r="AG7">
         <v>-1.467279553413391</v>
       </c>
-      <c r="AH7" t="s">
-        <v>180</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300077</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-1.44</v>
@@ -1554,7 +1662,7 @@
         <v>157141.27</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1595,8 +1703,23 @@
       <c r="W8">
         <v>-1.51</v>
       </c>
+      <c r="X8">
+        <v>-4.13</v>
+      </c>
+      <c r="Y8">
+        <v>29.35</v>
+      </c>
+      <c r="Z8">
+        <v>2.19</v>
+      </c>
       <c r="AC8" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1604,22 +1727,25 @@
       <c r="AG8">
         <v>-4.633049488067627</v>
       </c>
-      <c r="AH8" t="s">
-        <v>180</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300085</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0.16</v>
@@ -1637,7 +1763,7 @@
         <v>295528.58</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1678,8 +1804,23 @@
       <c r="W9">
         <v>-0.75</v>
       </c>
+      <c r="X9">
+        <v>-3.76</v>
+      </c>
+      <c r="Y9">
+        <v>55.07</v>
+      </c>
+      <c r="Z9">
+        <v>-0.15</v>
+      </c>
       <c r="AC9" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1687,22 +1828,25 @@
       <c r="AG9">
         <v>-21.10347747802734</v>
       </c>
-      <c r="AH9" t="s">
-        <v>180</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300113</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0.49</v>
@@ -1720,7 +1864,7 @@
         <v>138648.9</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1761,8 +1905,23 @@
       <c r="W10">
         <v>-0.16</v>
       </c>
+      <c r="X10">
+        <v>-3.81</v>
+      </c>
+      <c r="Y10">
+        <v>29.33</v>
+      </c>
+      <c r="Z10">
+        <v>1.7</v>
+      </c>
       <c r="AC10" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1770,22 +1929,25 @@
       <c r="AG10">
         <v>-0.1116172671318054</v>
       </c>
-      <c r="AH10" t="s">
-        <v>180</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300145</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>6.19</v>
@@ -1803,7 +1965,7 @@
         <v>98433.64</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1844,8 +2006,23 @@
       <c r="W11">
         <v>0.7</v>
       </c>
+      <c r="X11">
+        <v>-4.21</v>
+      </c>
+      <c r="Y11">
+        <v>5.25</v>
+      </c>
+      <c r="Z11">
+        <v>-1.32</v>
+      </c>
       <c r="AC11" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1853,22 +2030,25 @@
       <c r="AG11">
         <v>22.81642150878906</v>
       </c>
-      <c r="AH11" t="s">
-        <v>180</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300153</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-2.79</v>
@@ -1886,7 +2066,7 @@
         <v>93777.02</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1927,8 +2107,23 @@
       <c r="W12">
         <v>-1.01</v>
       </c>
+      <c r="X12">
+        <v>-2.31</v>
+      </c>
+      <c r="Y12">
+        <v>47.9</v>
+      </c>
+      <c r="Z12">
+        <v>4.81</v>
+      </c>
       <c r="AC12" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1936,22 +2131,25 @@
       <c r="AG12">
         <v>4.668614387512207</v>
       </c>
-      <c r="AH12" t="s">
-        <v>180</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300158</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>9.01</v>
@@ -1969,7 +2167,7 @@
         <v>129845.98</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K13">
         <v>25</v>
@@ -2010,8 +2208,23 @@
       <c r="W13">
         <v>-0.21</v>
       </c>
+      <c r="X13">
+        <v>-6.77</v>
+      </c>
+      <c r="Y13">
+        <v>9.57</v>
+      </c>
+      <c r="Z13">
+        <v>-2.35</v>
+      </c>
       <c r="AC13" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2019,22 +2232,25 @@
       <c r="AG13">
         <v>5.585271835327148</v>
       </c>
-      <c r="AH13" t="s">
-        <v>180</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300184</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-0.8</v>
@@ -2052,7 +2268,7 @@
         <v>101880.26</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2093,8 +2309,23 @@
       <c r="W14">
         <v>-0.4</v>
       </c>
+      <c r="X14">
+        <v>-3.54</v>
+      </c>
+      <c r="Y14">
+        <v>12.48</v>
+      </c>
+      <c r="Z14">
+        <v>0.73</v>
+      </c>
       <c r="AC14" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -2102,22 +2333,25 @@
       <c r="AG14">
         <v>1.365257382392883</v>
       </c>
-      <c r="AH14" t="s">
-        <v>180</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300192</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>0.19</v>
@@ -2135,7 +2369,7 @@
         <v>307192.91</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2176,8 +2410,23 @@
       <c r="W15">
         <v>-5.95</v>
       </c>
+      <c r="X15">
+        <v>-10.33</v>
+      </c>
+      <c r="Y15">
+        <v>25.59</v>
+      </c>
+      <c r="Z15">
+        <v>-1.43</v>
+      </c>
       <c r="AC15" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2185,22 +2434,25 @@
       <c r="AG15">
         <v>35.75300979614258</v>
       </c>
-      <c r="AH15" t="s">
-        <v>180</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300252</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-1.84</v>
@@ -2218,7 +2470,7 @@
         <v>57588.49</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K16">
         <v>7</v>
@@ -2259,8 +2511,23 @@
       <c r="W16">
         <v>-0.82</v>
       </c>
+      <c r="X16">
+        <v>-4.72</v>
+      </c>
+      <c r="Y16">
+        <v>14.43</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
       <c r="AC16" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2268,22 +2535,25 @@
       <c r="AG16">
         <v>2.727432489395142</v>
       </c>
-      <c r="AH16" t="s">
-        <v>180</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300290</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-2.41</v>
@@ -2301,7 +2571,7 @@
         <v>74929.86</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2342,8 +2612,23 @@
       <c r="W17">
         <v>-0.62</v>
       </c>
+      <c r="X17">
+        <v>-3.78</v>
+      </c>
+      <c r="Y17">
+        <v>25.85</v>
+      </c>
+      <c r="Z17">
+        <v>3.07</v>
+      </c>
       <c r="AC17" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2351,22 +2636,25 @@
       <c r="AG17">
         <v>1.431538462638855</v>
       </c>
-      <c r="AH17" t="s">
-        <v>180</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300308</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-0.75</v>
@@ -2384,7 +2672,7 @@
         <v>775717.38</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K18">
         <v>31</v>
@@ -2425,8 +2713,23 @@
       <c r="W18">
         <v>-0.08</v>
       </c>
+      <c r="X18">
+        <v>3.54</v>
+      </c>
+      <c r="Y18">
+        <v>345.9</v>
+      </c>
+      <c r="Z18">
+        <v>8.91</v>
+      </c>
       <c r="AC18" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2434,22 +2737,25 @@
       <c r="AG18">
         <v>-1.692019581794739</v>
       </c>
-      <c r="AH18" t="s">
-        <v>180</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300322</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>3.79</v>
@@ -2467,7 +2773,7 @@
         <v>195437.16</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K19">
         <v>22</v>
@@ -2508,8 +2814,23 @@
       <c r="W19">
         <v>0.14</v>
       </c>
+      <c r="X19">
+        <v>-5.33</v>
+      </c>
+      <c r="Y19">
+        <v>28.45</v>
+      </c>
+      <c r="Z19">
+        <v>0.96</v>
+      </c>
       <c r="AC19" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2517,22 +2838,25 @@
       <c r="AG19">
         <v>4.42723274230957</v>
       </c>
-      <c r="AH19" t="s">
-        <v>180</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300323</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0.72</v>
@@ -2550,7 +2874,7 @@
         <v>38273.73</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2591,8 +2915,23 @@
       <c r="W20">
         <v>-0.38</v>
       </c>
+      <c r="X20">
+        <v>-4.49</v>
+      </c>
+      <c r="Y20">
+        <v>10.09</v>
+      </c>
+      <c r="Z20">
+        <v>2.54</v>
+      </c>
       <c r="AC20" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2600,22 +2939,25 @@
       <c r="AG20">
         <v>3.529653310775757</v>
       </c>
-      <c r="AH20" t="s">
-        <v>180</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300324</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-1.94</v>
@@ -2633,7 +2975,7 @@
         <v>98179.05</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2674,8 +3016,23 @@
       <c r="W21">
         <v>-0.85</v>
       </c>
+      <c r="X21">
+        <v>2.01</v>
+      </c>
+      <c r="Y21">
+        <v>6.38</v>
+      </c>
+      <c r="Z21">
+        <v>4.93</v>
+      </c>
       <c r="AC21" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2683,22 +3040,25 @@
       <c r="AG21">
         <v>-3.465346574783325</v>
       </c>
-      <c r="AH21" t="s">
-        <v>180</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300328</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>3.38</v>
@@ -2716,7 +3076,7 @@
         <v>145546.46</v>
       </c>
       <c r="J22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2757,8 +3117,23 @@
       <c r="W22">
         <v>0.26</v>
       </c>
+      <c r="X22">
+        <v>-5.74</v>
+      </c>
+      <c r="Y22">
+        <v>18.97</v>
+      </c>
+      <c r="Z22">
+        <v>-1.56</v>
+      </c>
       <c r="AC22" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2766,22 +3141,25 @@
       <c r="AG22">
         <v>2.766800880432129</v>
       </c>
-      <c r="AH22" t="s">
-        <v>180</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300339</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>8.24</v>
@@ -2799,7 +3177,7 @@
         <v>731230</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2840,8 +3218,23 @@
       <c r="W23">
         <v>0.43</v>
       </c>
+      <c r="X23">
+        <v>-0.79</v>
+      </c>
+      <c r="Y23">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="Z23">
+        <v>0.63</v>
+      </c>
       <c r="AC23" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2849,22 +3242,25 @@
       <c r="AG23">
         <v>-9.880732536315918</v>
       </c>
-      <c r="AH23" t="s">
-        <v>180</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300352</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0.84</v>
@@ -2882,7 +3278,7 @@
         <v>79941.64999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2923,8 +3319,23 @@
       <c r="W24">
         <v>-0.14</v>
       </c>
+      <c r="X24">
+        <v>0.14</v>
+      </c>
+      <c r="Y24">
+        <v>7.36</v>
+      </c>
+      <c r="Z24">
+        <v>2.36</v>
+      </c>
       <c r="AC24" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2932,22 +3343,25 @@
       <c r="AG24">
         <v>2.047132253646851</v>
       </c>
-      <c r="AH24" t="s">
-        <v>180</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300364</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>8.1</v>
@@ -2965,7 +3379,7 @@
         <v>498952.76</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3006,8 +3420,23 @@
       <c r="W25">
         <v>-0.6</v>
       </c>
+      <c r="X25">
+        <v>-9.1</v>
+      </c>
+      <c r="Y25">
+        <v>35.9</v>
+      </c>
+      <c r="Z25">
+        <v>-2.18</v>
+      </c>
       <c r="AC25" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>1</v>
@@ -3015,22 +3444,25 @@
       <c r="AG25">
         <v>4.09284782409668</v>
       </c>
-      <c r="AH25" t="s">
-        <v>180</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300378</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>3.64</v>
@@ -3048,7 +3480,7 @@
         <v>128520.19</v>
       </c>
       <c r="J26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -3089,8 +3521,23 @@
       <c r="W26">
         <v>0.5</v>
       </c>
+      <c r="X26">
+        <v>0.52</v>
+      </c>
+      <c r="Y26">
+        <v>65</v>
+      </c>
+      <c r="Z26">
+        <v>6.23</v>
+      </c>
       <c r="AC26" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3098,22 +3545,25 @@
       <c r="AG26">
         <v>1.020419955253601</v>
       </c>
-      <c r="AH26" t="s">
-        <v>180</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300394</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>14.84</v>
@@ -3131,7 +3581,7 @@
         <v>789279.54</v>
       </c>
       <c r="J27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K27">
         <v>21</v>
@@ -3172,8 +3622,23 @@
       <c r="W27">
         <v>-0.03</v>
       </c>
+      <c r="X27">
+        <v>3.61</v>
+      </c>
+      <c r="Y27">
+        <v>157.96</v>
+      </c>
+      <c r="Z27">
+        <v>6.33</v>
+      </c>
       <c r="AC27" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3181,22 +3646,25 @@
       <c r="AG27">
         <v>37.30327987670898</v>
       </c>
-      <c r="AH27" t="s">
-        <v>180</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300409</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-0.88</v>
@@ -3214,7 +3682,7 @@
         <v>81010.47</v>
       </c>
       <c r="J28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K28">
         <v>7</v>
@@ -3255,8 +3723,23 @@
       <c r="W28">
         <v>0.1</v>
       </c>
+      <c r="X28">
+        <v>-2.29</v>
+      </c>
+      <c r="Y28">
+        <v>22.55</v>
+      </c>
+      <c r="Z28">
+        <v>0.62</v>
+      </c>
       <c r="AC28" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3264,22 +3747,25 @@
       <c r="AG28">
         <v>-3.767443418502808</v>
       </c>
-      <c r="AH28" t="s">
-        <v>180</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300469</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>6.23</v>
@@ -3297,7 +3783,7 @@
         <v>64773.93</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -3338,8 +3824,23 @@
       <c r="W29">
         <v>0.46</v>
       </c>
+      <c r="X29">
+        <v>-3.16</v>
+      </c>
+      <c r="Y29">
+        <v>54.8</v>
+      </c>
+      <c r="Z29">
+        <v>2.62</v>
+      </c>
       <c r="AC29" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3347,22 +3848,25 @@
       <c r="AG29">
         <v>-3.658051490783691</v>
       </c>
-      <c r="AH29" t="s">
-        <v>180</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300480</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>1.45</v>
@@ -3380,7 +3884,7 @@
         <v>42867.72</v>
       </c>
       <c r="J30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3421,8 +3925,23 @@
       <c r="W30">
         <v>0.51</v>
       </c>
+      <c r="X30">
+        <v>-7.12</v>
+      </c>
+      <c r="Y30">
+        <v>18.78</v>
+      </c>
+      <c r="Z30">
+        <v>-0.37</v>
+      </c>
       <c r="AC30" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3430,22 +3949,25 @@
       <c r="AG30">
         <v>1.554940938949585</v>
       </c>
-      <c r="AH30" t="s">
-        <v>180</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300491</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>1.12</v>
@@ -3463,7 +3985,7 @@
         <v>43127.88</v>
       </c>
       <c r="J31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3504,8 +4026,23 @@
       <c r="W31">
         <v>0.41</v>
       </c>
+      <c r="X31">
+        <v>1.74</v>
+      </c>
+      <c r="Y31">
+        <v>32.15</v>
+      </c>
+      <c r="Z31">
+        <v>8.1</v>
+      </c>
       <c r="AC31" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3513,22 +4050,25 @@
       <c r="AG31">
         <v>2.335331916809082</v>
       </c>
-      <c r="AH31" t="s">
-        <v>180</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300499</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-1.53</v>
@@ -3546,7 +4086,7 @@
         <v>184752.37</v>
       </c>
       <c r="J32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K32">
         <v>10</v>
@@ -3587,8 +4127,23 @@
       <c r="W32">
         <v>-0.96</v>
       </c>
+      <c r="X32">
+        <v>-0.63</v>
+      </c>
+      <c r="Y32">
+        <v>33.76</v>
+      </c>
+      <c r="Z32">
+        <v>2.58</v>
+      </c>
       <c r="AC32" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3596,22 +4151,25 @@
       <c r="AG32">
         <v>3.781315326690674</v>
       </c>
-      <c r="AH32" t="s">
-        <v>180</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300502</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-1.5</v>
@@ -3629,7 +4187,7 @@
         <v>952062.67</v>
       </c>
       <c r="J33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K33">
         <v>45</v>
@@ -3670,8 +4228,23 @@
       <c r="W33">
         <v>-0.33</v>
       </c>
+      <c r="X33">
+        <v>9.32</v>
+      </c>
+      <c r="Y33">
+        <v>324.42</v>
+      </c>
+      <c r="Z33">
+        <v>11.22</v>
+      </c>
       <c r="AC33" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3679,22 +4252,25 @@
       <c r="AG33">
         <v>27.59054756164551</v>
       </c>
-      <c r="AH33" t="s">
-        <v>180</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300503</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-5.99</v>
@@ -3712,7 +4288,7 @@
         <v>132661.63</v>
       </c>
       <c r="J34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3753,8 +4329,23 @@
       <c r="W34">
         <v>-2.74</v>
       </c>
+      <c r="X34">
+        <v>-2.88</v>
+      </c>
+      <c r="Y34">
+        <v>31.96</v>
+      </c>
+      <c r="Z34">
+        <v>1.36</v>
+      </c>
       <c r="AC34" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3762,22 +4353,25 @@
       <c r="AG34">
         <v>-0.2101101577281952</v>
       </c>
-      <c r="AH34" t="s">
-        <v>180</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300533</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>8.17</v>
@@ -3795,7 +4389,7 @@
         <v>104014.22</v>
       </c>
       <c r="J35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3836,8 +4430,23 @@
       <c r="W35">
         <v>-0.1</v>
       </c>
+      <c r="X35">
+        <v>-4.34</v>
+      </c>
+      <c r="Y35">
+        <v>43.54</v>
+      </c>
+      <c r="Z35">
+        <v>-2.99</v>
+      </c>
       <c r="AC35" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3845,22 +4454,25 @@
       <c r="AG35">
         <v>16.94676399230957</v>
       </c>
-      <c r="AH35" t="s">
-        <v>180</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300547</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-1.64</v>
@@ -3878,7 +4490,7 @@
         <v>99456.14999999999</v>
       </c>
       <c r="J36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K36">
         <v>8</v>
@@ -3919,8 +4531,23 @@
       <c r="W36">
         <v>-0.33</v>
       </c>
+      <c r="X36">
+        <v>1.72</v>
+      </c>
+      <c r="Y36">
+        <v>53.47</v>
+      </c>
+      <c r="Z36">
+        <v>4.64</v>
+      </c>
       <c r="AC36" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3928,22 +4555,25 @@
       <c r="AG36">
         <v>29.11518859863281</v>
       </c>
-      <c r="AH36" t="s">
-        <v>180</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300548</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>5.14</v>
@@ -3961,7 +4591,7 @@
         <v>268111.82</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K37">
         <v>31</v>
@@ -4002,8 +4632,23 @@
       <c r="W37">
         <v>0.28</v>
       </c>
+      <c r="X37">
+        <v>12.49</v>
+      </c>
+      <c r="Y37">
+        <v>139.99</v>
+      </c>
+      <c r="Z37">
+        <v>13.88</v>
+      </c>
       <c r="AC37" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4011,22 +4656,25 @@
       <c r="AG37">
         <v>3.335963010787964</v>
       </c>
-      <c r="AH37" t="s">
-        <v>180</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300584</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-3.56</v>
@@ -4044,7 +4692,7 @@
         <v>42517.9</v>
       </c>
       <c r="J38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K38">
         <v>11</v>
@@ -4085,8 +4733,23 @@
       <c r="W38">
         <v>-0.92</v>
       </c>
+      <c r="X38">
+        <v>-1.38</v>
+      </c>
+      <c r="Y38">
+        <v>60.28</v>
+      </c>
+      <c r="Z38">
+        <v>6.03</v>
+      </c>
       <c r="AC38" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4094,22 +4757,25 @@
       <c r="AG38">
         <v>4.801817893981934</v>
       </c>
-      <c r="AH38" t="s">
-        <v>180</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300598</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>3.11</v>
@@ -4127,7 +4793,7 @@
         <v>157461.72</v>
       </c>
       <c r="J39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4168,8 +4834,23 @@
       <c r="W39">
         <v>0.03</v>
       </c>
+      <c r="X39">
+        <v>-5.68</v>
+      </c>
+      <c r="Y39">
+        <v>59.2</v>
+      </c>
+      <c r="Z39">
+        <v>-2.49</v>
+      </c>
       <c r="AC39" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4177,22 +4858,25 @@
       <c r="AG39">
         <v>-3.970604419708252</v>
       </c>
-      <c r="AH39" t="s">
-        <v>180</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300620</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-1.9</v>
@@ -4210,7 +4894,7 @@
         <v>149501.59</v>
       </c>
       <c r="J40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K40">
         <v>11</v>
@@ -4251,8 +4935,23 @@
       <c r="W40">
         <v>-0.64</v>
       </c>
+      <c r="X40">
+        <v>1.15</v>
+      </c>
+      <c r="Y40">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="Z40">
+        <v>4.19</v>
+      </c>
       <c r="AC40" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4260,22 +4959,25 @@
       <c r="AG40">
         <v>-0.4462087750434875</v>
       </c>
-      <c r="AH40" t="s">
-        <v>180</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300642</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>13.04</v>
@@ -4293,7 +4995,7 @@
         <v>81855.38</v>
       </c>
       <c r="J41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K41">
         <v>6</v>
@@ -4334,8 +5036,23 @@
       <c r="W41">
         <v>1.24</v>
       </c>
+      <c r="X41">
+        <v>-5.53</v>
+      </c>
+      <c r="Y41">
+        <v>31.8</v>
+      </c>
+      <c r="Z41">
+        <v>-2.15</v>
+      </c>
       <c r="AC41" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4343,22 +5060,25 @@
       <c r="AG41">
         <v>1.043042659759521</v>
       </c>
-      <c r="AH41" t="s">
-        <v>180</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300683</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-3.7</v>
@@ -4376,7 +5096,7 @@
         <v>58468.38</v>
       </c>
       <c r="J42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4417,8 +5137,23 @@
       <c r="W42">
         <v>-0.59</v>
       </c>
+      <c r="X42">
+        <v>-6.87</v>
+      </c>
+      <c r="Y42">
+        <v>55.55</v>
+      </c>
+      <c r="Z42">
+        <v>-2.9</v>
+      </c>
       <c r="AC42" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4426,22 +5161,25 @@
       <c r="AG42">
         <v>4.136480331420898</v>
       </c>
-      <c r="AH42" t="s">
-        <v>180</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300686</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>5.51</v>
@@ -4459,7 +5197,7 @@
         <v>61601.19</v>
       </c>
       <c r="J43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -4500,8 +5238,23 @@
       <c r="W43">
         <v>0.19</v>
       </c>
+      <c r="X43">
+        <v>-4.25</v>
+      </c>
+      <c r="Y43">
+        <v>13.88</v>
+      </c>
+      <c r="Z43">
+        <v>0.65</v>
+      </c>
       <c r="AC43" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4509,22 +5262,25 @@
       <c r="AG43">
         <v>4.344594478607178</v>
       </c>
-      <c r="AH43" t="s">
-        <v>180</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300709</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>7.23</v>
@@ -4542,7 +5298,7 @@
         <v>99361.61</v>
       </c>
       <c r="J44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4583,8 +5339,23 @@
       <c r="W44">
         <v>0.62</v>
       </c>
+      <c r="X44">
+        <v>-3.06</v>
+      </c>
+      <c r="Y44">
+        <v>54.25</v>
+      </c>
+      <c r="Z44">
+        <v>0.52</v>
+      </c>
       <c r="AC44" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4592,22 +5363,25 @@
       <c r="AG44">
         <v>-3.699427366256714</v>
       </c>
-      <c r="AH44" t="s">
-        <v>180</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300724</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>5.52</v>
@@ -4625,7 +5399,7 @@
         <v>198343.3</v>
       </c>
       <c r="J45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4666,8 +5440,23 @@
       <c r="W45">
         <v>0.24</v>
       </c>
+      <c r="X45">
+        <v>-2.87</v>
+      </c>
+      <c r="Y45">
+        <v>87.97</v>
+      </c>
+      <c r="Z45">
+        <v>-0.82</v>
+      </c>
       <c r="AC45" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4675,22 +5464,25 @@
       <c r="AG45">
         <v>-0.3795696496963501</v>
       </c>
-      <c r="AH45" t="s">
-        <v>180</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300730</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>0.22</v>
@@ -4708,7 +5500,7 @@
         <v>68713.39999999999</v>
       </c>
       <c r="J46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K46">
         <v>7</v>
@@ -4749,8 +5541,23 @@
       <c r="W46">
         <v>-0.1</v>
       </c>
+      <c r="X46">
+        <v>-6.66</v>
+      </c>
+      <c r="Y46">
+        <v>22.01</v>
+      </c>
+      <c r="Z46">
+        <v>-1.87</v>
+      </c>
       <c r="AC46" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4758,22 +5565,25 @@
       <c r="AG46">
         <v>0.9205577969551086</v>
       </c>
-      <c r="AH46" t="s">
-        <v>180</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300740</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>9.83</v>
@@ -4791,7 +5601,7 @@
         <v>72728.48</v>
       </c>
       <c r="J47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -4832,8 +5642,23 @@
       <c r="W47">
         <v>0.19</v>
       </c>
+      <c r="X47">
+        <v>-3.07</v>
+      </c>
+      <c r="Y47">
+        <v>24.14</v>
+      </c>
+      <c r="Z47">
+        <v>1.9</v>
+      </c>
       <c r="AC47" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4841,22 +5666,25 @@
       <c r="AG47">
         <v>0.7131211161613464</v>
       </c>
-      <c r="AH47" t="s">
-        <v>180</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300748</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>3.05</v>
@@ -4874,7 +5702,7 @@
         <v>489570.36</v>
       </c>
       <c r="J48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K48">
         <v>33</v>
@@ -4915,8 +5743,23 @@
       <c r="W48">
         <v>-1.19</v>
       </c>
+      <c r="X48">
+        <v>6.63</v>
+      </c>
+      <c r="Y48">
+        <v>43.28</v>
+      </c>
+      <c r="Z48">
+        <v>15.51</v>
+      </c>
       <c r="AC48" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4924,22 +5767,25 @@
       <c r="AG48">
         <v>51.41776275634766</v>
       </c>
-      <c r="AH48" t="s">
-        <v>180</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300752</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-0.55</v>
@@ -4957,7 +5803,7 @@
         <v>28804.7</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K49">
         <v>6</v>
@@ -4998,8 +5844,23 @@
       <c r="W49">
         <v>0.09</v>
       </c>
+      <c r="X49">
+        <v>-5.54</v>
+      </c>
+      <c r="Y49">
+        <v>26.75</v>
+      </c>
+      <c r="Z49">
+        <v>-1.15</v>
+      </c>
       <c r="AC49" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5007,22 +5868,25 @@
       <c r="AG49">
         <v>3.620535373687744</v>
       </c>
-      <c r="AH49" t="s">
-        <v>180</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300757</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>0.61</v>
@@ -5040,7 +5904,7 @@
         <v>266410.78</v>
       </c>
       <c r="J50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5081,8 +5945,23 @@
       <c r="W50">
         <v>-0.9</v>
       </c>
+      <c r="X50">
+        <v>-0.82</v>
+      </c>
+      <c r="Y50">
+        <v>279.55</v>
+      </c>
+      <c r="Z50">
+        <v>2.77</v>
+      </c>
       <c r="AC50" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5090,22 +5969,25 @@
       <c r="AG50">
         <v>8.942488670349121</v>
       </c>
-      <c r="AH50" t="s">
-        <v>180</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300767</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>3.04</v>
@@ -5123,7 +6005,7 @@
         <v>60247.59</v>
       </c>
       <c r="J51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K51">
         <v>7</v>
@@ -5164,8 +6046,23 @@
       <c r="W51">
         <v>0.74</v>
       </c>
+      <c r="X51">
+        <v>0.32</v>
+      </c>
+      <c r="Y51">
+        <v>26.58</v>
+      </c>
+      <c r="Z51">
+        <v>3.1</v>
+      </c>
       <c r="AC51" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>1</v>
@@ -5173,22 +6070,25 @@
       <c r="AG51">
         <v>10.711745262146</v>
       </c>
-      <c r="AH51" t="s">
-        <v>181</v>
+      <c r="AH51">
+        <v>1</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300803</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>7.46</v>
@@ -5206,7 +6106,7 @@
         <v>618518.17</v>
       </c>
       <c r="J52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K52">
         <v>11</v>
@@ -5247,8 +6147,23 @@
       <c r="W52">
         <v>0.21</v>
       </c>
+      <c r="X52">
+        <v>-4.29</v>
+      </c>
+      <c r="Y52">
+        <v>158</v>
+      </c>
+      <c r="Z52">
+        <v>0.53</v>
+      </c>
       <c r="AC52" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5256,22 +6171,25 @@
       <c r="AG52">
         <v>4.278196334838867</v>
       </c>
-      <c r="AH52" t="s">
-        <v>180</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300806</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>5.09</v>
@@ -5289,7 +6207,7 @@
         <v>71031.03999999999</v>
       </c>
       <c r="J53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K53">
         <v>8</v>
@@ -5330,8 +6248,23 @@
       <c r="W53">
         <v>1.4</v>
       </c>
+      <c r="X53">
+        <v>-3.91</v>
+      </c>
+      <c r="Y53">
+        <v>27.27</v>
+      </c>
+      <c r="Z53">
+        <v>2.44</v>
+      </c>
       <c r="AC53" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5339,22 +6272,25 @@
       <c r="AG53">
         <v>2.561907768249512</v>
       </c>
-      <c r="AH53" t="s">
-        <v>180</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300814</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-0.95</v>
@@ -5372,7 +6308,7 @@
         <v>33082.59</v>
       </c>
       <c r="J54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K54">
         <v>7</v>
@@ -5413,8 +6349,23 @@
       <c r="W54">
         <v>-0.33</v>
       </c>
+      <c r="X54">
+        <v>-0.41</v>
+      </c>
+      <c r="Y54">
+        <v>48.1</v>
+      </c>
+      <c r="Z54">
+        <v>2.89</v>
+      </c>
       <c r="AC54" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5422,22 +6373,25 @@
       <c r="AG54">
         <v>3.789354085922241</v>
       </c>
-      <c r="AH54" t="s">
-        <v>180</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300843</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-0.66</v>
@@ -5455,7 +6409,7 @@
         <v>58749.54</v>
       </c>
       <c r="J55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K55">
         <v>8</v>
@@ -5496,8 +6450,23 @@
       <c r="W55">
         <v>-0.66</v>
       </c>
+      <c r="X55">
+        <v>4.81</v>
+      </c>
+      <c r="Y55">
+        <v>56.6</v>
+      </c>
+      <c r="Z55">
+        <v>4.58</v>
+      </c>
       <c r="AC55" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5505,22 +6474,25 @@
       <c r="AG55">
         <v>1.094558596611023</v>
       </c>
-      <c r="AH55" t="s">
-        <v>180</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300859</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>0.02</v>
@@ -5538,7 +6510,7 @@
         <v>36753.15</v>
       </c>
       <c r="J56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5579,8 +6551,23 @@
       <c r="W56">
         <v>-0.08</v>
       </c>
+      <c r="X56">
+        <v>-2.67</v>
+      </c>
+      <c r="Y56">
+        <v>44.8</v>
+      </c>
+      <c r="Z56">
+        <v>-0.44</v>
+      </c>
       <c r="AC56" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5588,22 +6575,25 @@
       <c r="AG56">
         <v>4.459939479827881</v>
       </c>
-      <c r="AH56" t="s">
-        <v>180</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300870</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-2.94</v>
@@ -5621,7 +6611,7 @@
         <v>88892.72</v>
       </c>
       <c r="J57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K57">
         <v>10</v>
@@ -5662,8 +6652,23 @@
       <c r="W57">
         <v>-0.31</v>
       </c>
+      <c r="X57">
+        <v>4.85</v>
+      </c>
+      <c r="Y57">
+        <v>283</v>
+      </c>
+      <c r="Z57">
+        <v>10.44</v>
+      </c>
       <c r="AC57" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5671,22 +6676,25 @@
       <c r="AG57">
         <v>4.561203956604004</v>
       </c>
-      <c r="AH57" t="s">
-        <v>180</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300913</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-1.84</v>
@@ -5704,7 +6712,7 @@
         <v>53989.22</v>
       </c>
       <c r="J58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K58">
         <v>6</v>
@@ -5745,8 +6753,23 @@
       <c r="W58">
         <v>-0.29</v>
       </c>
+      <c r="X58">
+        <v>1.41</v>
+      </c>
+      <c r="Y58">
+        <v>63.11</v>
+      </c>
+      <c r="Z58">
+        <v>4.45</v>
+      </c>
       <c r="AC58" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5754,22 +6777,25 @@
       <c r="AG58">
         <v>50.25815963745117</v>
       </c>
-      <c r="AH58" t="s">
-        <v>180</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>300991</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-0.05</v>
@@ -5787,7 +6813,7 @@
         <v>44182.48</v>
       </c>
       <c r="J59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5828,8 +6854,23 @@
       <c r="W59">
         <v>-0.27</v>
       </c>
+      <c r="X59">
+        <v>1.49</v>
+      </c>
+      <c r="Y59">
+        <v>44.77</v>
+      </c>
+      <c r="Z59">
+        <v>2.54</v>
+      </c>
       <c r="AC59" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5837,22 +6878,25 @@
       <c r="AG59">
         <v>3.471451997756958</v>
       </c>
-      <c r="AH59" t="s">
-        <v>180</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301018</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-1.71</v>
@@ -5870,7 +6914,7 @@
         <v>71200.19</v>
       </c>
       <c r="J60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K60">
         <v>10</v>
@@ -5911,8 +6955,23 @@
       <c r="W60">
         <v>-0.04</v>
       </c>
+      <c r="X60">
+        <v>2.23</v>
+      </c>
+      <c r="Y60">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="Z60">
+        <v>6.38</v>
+      </c>
       <c r="AC60" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5920,22 +6979,25 @@
       <c r="AG60">
         <v>5.682247638702393</v>
       </c>
-      <c r="AH60" t="s">
-        <v>180</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301052</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-1.1</v>
@@ -5953,7 +7015,7 @@
         <v>27997.34</v>
       </c>
       <c r="J61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K61">
         <v>4</v>
@@ -5994,8 +7056,23 @@
       <c r="W61">
         <v>-0.63</v>
       </c>
+      <c r="X61">
+        <v>-0.64</v>
+      </c>
+      <c r="Y61">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="Z61">
+        <v>-1.18</v>
+      </c>
       <c r="AC61" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6003,22 +7080,25 @@
       <c r="AG61">
         <v>4.744327545166016</v>
       </c>
-      <c r="AH61" t="s">
-        <v>180</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301095</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>1.07</v>
@@ -6036,7 +7116,7 @@
         <v>44090.99</v>
       </c>
       <c r="J62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K62">
         <v>20</v>
@@ -6077,8 +7157,23 @@
       <c r="W62">
         <v>-0.12</v>
       </c>
+      <c r="X62">
+        <v>-3.91</v>
+      </c>
+      <c r="Y62">
+        <v>93.95</v>
+      </c>
+      <c r="Z62">
+        <v>0.91</v>
+      </c>
       <c r="AC62" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6086,22 +7181,25 @@
       <c r="AG62">
         <v>3.831030368804932</v>
       </c>
-      <c r="AH62" t="s">
-        <v>180</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301123</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>5.64</v>
@@ -6119,7 +7217,7 @@
         <v>83347.05</v>
       </c>
       <c r="J63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K63">
         <v>16</v>
@@ -6160,8 +7258,23 @@
       <c r="W63">
         <v>0.88</v>
       </c>
+      <c r="X63">
+        <v>-6.21</v>
+      </c>
+      <c r="Y63">
+        <v>44.2</v>
+      </c>
+      <c r="Z63">
+        <v>-2.45</v>
+      </c>
       <c r="AC63" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6169,22 +7282,25 @@
       <c r="AG63">
         <v>5.816986083984375</v>
       </c>
-      <c r="AH63" t="s">
-        <v>180</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301128</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-6.83</v>
@@ -6202,7 +7318,7 @@
         <v>109197.3</v>
       </c>
       <c r="J64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K64">
         <v>10</v>
@@ -6243,8 +7359,23 @@
       <c r="W64">
         <v>-0.95</v>
       </c>
+      <c r="X64">
+        <v>-2.01</v>
+      </c>
+      <c r="Y64">
+        <v>108.43</v>
+      </c>
+      <c r="Z64">
+        <v>-1.36</v>
+      </c>
       <c r="AC64" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6252,22 +7383,25 @@
       <c r="AG64">
         <v>1.743005275726318</v>
       </c>
-      <c r="AH64" t="s">
-        <v>180</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301165</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-1.65</v>
@@ -6285,7 +7419,7 @@
         <v>96663.07000000001</v>
       </c>
       <c r="J65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K65">
         <v>11</v>
@@ -6326,8 +7460,23 @@
       <c r="W65">
         <v>-0.84</v>
       </c>
+      <c r="X65">
+        <v>-0.27</v>
+      </c>
+      <c r="Y65">
+        <v>93.5</v>
+      </c>
+      <c r="Z65">
+        <v>4.38</v>
+      </c>
       <c r="AC65" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6335,22 +7484,25 @@
       <c r="AG65">
         <v>1.562110304832458</v>
       </c>
-      <c r="AH65" t="s">
-        <v>180</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301183</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>0.35</v>
@@ -6368,7 +7520,7 @@
         <v>45068.26</v>
       </c>
       <c r="J66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K66">
         <v>6</v>
@@ -6409,8 +7561,23 @@
       <c r="W66">
         <v>0.16</v>
       </c>
+      <c r="X66">
+        <v>20</v>
+      </c>
+      <c r="Y66">
+        <v>96.23</v>
+      </c>
+      <c r="Z66">
+        <v>22.81</v>
+      </c>
       <c r="AC66" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>1</v>
@@ -6418,22 +7585,25 @@
       <c r="AG66">
         <v>3.632521152496338</v>
       </c>
-      <c r="AH66" t="s">
-        <v>181</v>
+      <c r="AH66">
+        <v>1</v>
+      </c>
+      <c r="AI66">
+        <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301205</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>5.56</v>
@@ -6451,7 +7621,7 @@
         <v>89489.42</v>
       </c>
       <c r="J67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K67">
         <v>5</v>
@@ -6492,8 +7662,23 @@
       <c r="W67">
         <v>0.89</v>
       </c>
+      <c r="X67">
+        <v>-7.73</v>
+      </c>
+      <c r="Y67">
+        <v>114.36</v>
+      </c>
+      <c r="Z67">
+        <v>-5.06</v>
+      </c>
       <c r="AC67" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6501,22 +7686,25 @@
       <c r="AG67">
         <v>2.214360475540161</v>
       </c>
-      <c r="AH67" t="s">
-        <v>180</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301217</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-4.69</v>
@@ -6534,7 +7722,7 @@
         <v>108402.14</v>
       </c>
       <c r="J68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K68">
         <v>37</v>
@@ -6575,8 +7763,23 @@
       <c r="W68">
         <v>-0.34</v>
       </c>
+      <c r="X68">
+        <v>-0.77</v>
+      </c>
+      <c r="Y68">
+        <v>35.5</v>
+      </c>
+      <c r="Z68">
+        <v>4.63</v>
+      </c>
       <c r="AC68" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6584,22 +7787,25 @@
       <c r="AG68">
         <v>-2.220767259597778</v>
       </c>
-      <c r="AH68" t="s">
-        <v>180</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301219</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-1.6</v>
@@ -6617,7 +7823,7 @@
         <v>31797.48</v>
       </c>
       <c r="J69" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K69">
         <v>5</v>
@@ -6658,8 +7864,23 @@
       <c r="W69">
         <v>-0.09</v>
       </c>
+      <c r="X69">
+        <v>-2.83</v>
+      </c>
+      <c r="Y69">
+        <v>67.28</v>
+      </c>
+      <c r="Z69">
+        <v>-0.62</v>
+      </c>
       <c r="AC69" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6667,22 +7888,25 @@
       <c r="AG69">
         <v>-0.1327429860830307</v>
       </c>
-      <c r="AH69" t="s">
-        <v>180</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301357</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>3.02</v>
@@ -6700,7 +7924,7 @@
         <v>97697.92999999999</v>
       </c>
       <c r="J70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K70">
         <v>21</v>
@@ -6741,8 +7965,23 @@
       <c r="W70">
         <v>-0.41</v>
       </c>
+      <c r="X70">
+        <v>-6.97</v>
+      </c>
+      <c r="Y70">
+        <v>166.01</v>
+      </c>
+      <c r="Z70">
+        <v>-1.49</v>
+      </c>
       <c r="AC70" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6750,22 +7989,25 @@
       <c r="AG70">
         <v>-0.5064018964767456</v>
       </c>
-      <c r="AH70" t="s">
-        <v>180</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301363</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-5.79</v>
@@ -6783,7 +8025,7 @@
         <v>58375.33</v>
       </c>
       <c r="J71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -6824,8 +8066,23 @@
       <c r="W71">
         <v>-1.38</v>
       </c>
+      <c r="X71">
+        <v>4.45</v>
+      </c>
+      <c r="Y71">
+        <v>27.99</v>
+      </c>
+      <c r="Z71">
+        <v>11.6</v>
+      </c>
       <c r="AC71" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6833,22 +8090,25 @@
       <c r="AG71">
         <v>9.387627601623535</v>
       </c>
-      <c r="AH71" t="s">
-        <v>180</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301377</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>2.25</v>
@@ -6866,7 +8126,7 @@
         <v>44554.73</v>
       </c>
       <c r="J72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K72">
         <v>12</v>
@@ -6907,8 +8167,23 @@
       <c r="W72">
         <v>-0.05</v>
       </c>
+      <c r="X72">
+        <v>-5.8</v>
+      </c>
+      <c r="Y72">
+        <v>75.81999999999999</v>
+      </c>
+      <c r="Z72">
+        <v>1.16</v>
+      </c>
       <c r="AC72" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6916,22 +8191,25 @@
       <c r="AG72">
         <v>2.367308855056763</v>
       </c>
-      <c r="AH72" t="s">
-        <v>180</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301413</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-2.85</v>
@@ -6949,7 +8227,7 @@
         <v>29953.08</v>
       </c>
       <c r="J73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -6990,8 +8268,23 @@
       <c r="W73">
         <v>0.1</v>
       </c>
+      <c r="X73">
+        <v>-0.68</v>
+      </c>
+      <c r="Y73">
+        <v>129</v>
+      </c>
+      <c r="Z73">
+        <v>5.74</v>
+      </c>
       <c r="AC73" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6999,22 +8292,25 @@
       <c r="AG73">
         <v>8.545144081115723</v>
       </c>
-      <c r="AH73" t="s">
-        <v>180</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301486</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-2.19</v>
@@ -7032,7 +8328,7 @@
         <v>50041.22</v>
       </c>
       <c r="J74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K74">
         <v>10</v>
@@ -7073,8 +8369,23 @@
       <c r="W74">
         <v>-0.52</v>
       </c>
+      <c r="X74">
+        <v>-2.44</v>
+      </c>
+      <c r="Y74">
+        <v>96</v>
+      </c>
+      <c r="Z74">
+        <v>1.11</v>
+      </c>
       <c r="AC74" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7082,22 +8393,25 @@
       <c r="AG74">
         <v>11.40343475341797</v>
       </c>
-      <c r="AH74" t="s">
-        <v>180</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301489</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-6.43</v>
@@ -7115,7 +8429,7 @@
         <v>73739.14999999999</v>
       </c>
       <c r="J75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K75">
         <v>19</v>
@@ -7156,8 +8470,23 @@
       <c r="W75">
         <v>-0.63</v>
       </c>
+      <c r="X75">
+        <v>-3.75</v>
+      </c>
+      <c r="Y75">
+        <v>180.02</v>
+      </c>
+      <c r="Z75">
+        <v>0.74</v>
+      </c>
       <c r="AC75" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>1</v>
@@ -7165,22 +8494,25 @@
       <c r="AG75">
         <v>4.685940742492676</v>
       </c>
-      <c r="AH75" t="s">
-        <v>180</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301526</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>5.69</v>
@@ -7198,7 +8530,7 @@
         <v>135739.44</v>
       </c>
       <c r="J76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K76">
         <v>14</v>
@@ -7239,8 +8571,23 @@
       <c r="W76">
         <v>-0.28</v>
       </c>
+      <c r="X76">
+        <v>-4.23</v>
+      </c>
+      <c r="Y76">
+        <v>7.05</v>
+      </c>
+      <c r="Z76">
+        <v>-0.14</v>
+      </c>
       <c r="AC76" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7248,22 +8595,25 @@
       <c r="AG76">
         <v>6.478092670440674</v>
       </c>
-      <c r="AH76" t="s">
-        <v>180</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301617</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>-0.11</v>
@@ -7281,7 +8631,7 @@
         <v>30638.89</v>
       </c>
       <c r="J77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K77">
         <v>3</v>
@@ -7322,8 +8672,23 @@
       <c r="W77">
         <v>0.23</v>
       </c>
+      <c r="X77">
+        <v>10.91</v>
+      </c>
+      <c r="Y77">
+        <v>61.5</v>
+      </c>
+      <c r="Z77">
+        <v>15.6</v>
+      </c>
       <c r="AC77" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7331,22 +8696,25 @@
       <c r="AG77">
         <v>2.30895471572876</v>
       </c>
-      <c r="AH77" t="s">
-        <v>180</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688041</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>-4.74</v>
@@ -7364,7 +8732,7 @@
         <v>791417.14</v>
       </c>
       <c r="J78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -7405,8 +8773,23 @@
       <c r="W78">
         <v>-0.11</v>
       </c>
+      <c r="X78">
+        <v>-2.68</v>
+      </c>
+      <c r="Y78">
+        <v>202.61</v>
+      </c>
+      <c r="Z78">
+        <v>1.23</v>
+      </c>
       <c r="AC78" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7414,22 +8797,25 @@
       <c r="AG78">
         <v>136.8837890625</v>
       </c>
-      <c r="AH78" t="s">
-        <v>180</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688062</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>3.23</v>
@@ -7447,7 +8833,7 @@
         <v>55189.63</v>
       </c>
       <c r="J79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -7488,8 +8874,23 @@
       <c r="W79">
         <v>-0.12</v>
       </c>
+      <c r="X79">
+        <v>6.07</v>
+      </c>
+      <c r="Y79">
+        <v>49.02</v>
+      </c>
+      <c r="Z79">
+        <v>16.35</v>
+      </c>
       <c r="AC79" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>1</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7497,22 +8898,25 @@
       <c r="AG79">
         <v>-3.299673795700073</v>
       </c>
-      <c r="AH79" t="s">
-        <v>180</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688066</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>11.26</v>
@@ -7530,7 +8934,7 @@
         <v>140186.92</v>
       </c>
       <c r="J80" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -7571,8 +8975,23 @@
       <c r="W80">
         <v>-1.33</v>
       </c>
+      <c r="X80">
+        <v>-6.67</v>
+      </c>
+      <c r="Y80">
+        <v>37.3</v>
+      </c>
+      <c r="Z80">
+        <v>4.83</v>
+      </c>
       <c r="AC80" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>1</v>
@@ -7580,22 +8999,25 @@
       <c r="AG80">
         <v>4.21171236038208</v>
       </c>
-      <c r="AH80" t="s">
-        <v>180</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688110</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>3.65</v>
@@ -7613,7 +9035,7 @@
         <v>261577.7</v>
       </c>
       <c r="J81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -7654,8 +9076,23 @@
       <c r="W81">
         <v>-0.02</v>
       </c>
+      <c r="X81">
+        <v>1.33</v>
+      </c>
+      <c r="Y81">
+        <v>104.3</v>
+      </c>
+      <c r="Z81">
+        <v>1.65</v>
+      </c>
       <c r="AC81" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7663,22 +9100,25 @@
       <c r="AG81">
         <v>5.887069225311279</v>
       </c>
-      <c r="AH81" t="s">
-        <v>180</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688146</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>0.19</v>
@@ -7696,7 +9136,7 @@
         <v>24114.28</v>
       </c>
       <c r="J82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K82">
         <v>10</v>
@@ -7737,8 +9177,23 @@
       <c r="W82">
         <v>-0.53</v>
       </c>
+      <c r="X82">
+        <v>-0.85</v>
+      </c>
+      <c r="Y82">
+        <v>44.56</v>
+      </c>
+      <c r="Z82">
+        <v>6.04</v>
+      </c>
       <c r="AC82" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7746,22 +9201,25 @@
       <c r="AG82">
         <v>1.528121590614319</v>
       </c>
-      <c r="AH82" t="s">
-        <v>180</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688167</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-0.82</v>
@@ -7779,7 +9237,7 @@
         <v>51425.96</v>
       </c>
       <c r="J83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K83">
         <v>15</v>
@@ -7820,8 +9278,23 @@
       <c r="W83">
         <v>-0.15</v>
       </c>
+      <c r="X83">
+        <v>-6.29</v>
+      </c>
+      <c r="Y83">
+        <v>134.88</v>
+      </c>
+      <c r="Z83">
+        <v>-2.72</v>
+      </c>
       <c r="AC83" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7829,22 +9302,25 @@
       <c r="AG83">
         <v>1.27113401889801</v>
       </c>
-      <c r="AH83" t="s">
-        <v>180</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688195</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>-2.64</v>
@@ -7862,7 +9338,7 @@
         <v>33365.04</v>
       </c>
       <c r="J84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K84">
         <v>7</v>
@@ -7903,8 +9379,23 @@
       <c r="W84">
         <v>-0.44</v>
       </c>
+      <c r="X84">
+        <v>2.22</v>
+      </c>
+      <c r="Y84">
+        <v>65.59</v>
+      </c>
+      <c r="Z84">
+        <v>5.26</v>
+      </c>
       <c r="AC84" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7912,22 +9403,25 @@
       <c r="AG84">
         <v>7.923029899597168</v>
       </c>
-      <c r="AH84" t="s">
-        <v>180</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688205</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>-2.88</v>
@@ -7945,7 +9439,7 @@
         <v>117744.67</v>
       </c>
       <c r="J85" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K85">
         <v>3</v>
@@ -7986,8 +9480,23 @@
       <c r="W85">
         <v>-0.13</v>
       </c>
+      <c r="X85">
+        <v>6.27</v>
+      </c>
+      <c r="Y85">
+        <v>108.78</v>
+      </c>
+      <c r="Z85">
+        <v>12.49</v>
+      </c>
       <c r="AC85" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>1</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -7995,22 +9504,25 @@
       <c r="AG85">
         <v>0.4617973566055298</v>
       </c>
-      <c r="AH85" t="s">
-        <v>180</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688256</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-3.43</v>
@@ -8028,7 +9540,7 @@
         <v>1015863.19</v>
       </c>
       <c r="J86" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8069,8 +9581,23 @@
       <c r="W86">
         <v>0</v>
       </c>
+      <c r="X86">
+        <v>3.24</v>
+      </c>
+      <c r="Y86">
+        <v>1464.98</v>
+      </c>
+      <c r="Z86">
+        <v>9.539999999999999</v>
+      </c>
       <c r="AC86" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8078,22 +9605,25 @@
       <c r="AG86">
         <v>4.340641021728516</v>
       </c>
-      <c r="AH86" t="s">
-        <v>180</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688270</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>-1.61</v>
@@ -8111,7 +9641,7 @@
         <v>79068.17</v>
       </c>
       <c r="J87" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K87">
         <v>10</v>
@@ -8152,8 +9682,23 @@
       <c r="W87">
         <v>0.18</v>
       </c>
+      <c r="X87">
+        <v>0.13</v>
+      </c>
+      <c r="Y87">
+        <v>74.77</v>
+      </c>
+      <c r="Z87">
+        <v>4.46</v>
+      </c>
       <c r="AC87" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8161,22 +9706,25 @@
       <c r="AG87">
         <v>6.145694255828857</v>
       </c>
-      <c r="AH87" t="s">
-        <v>180</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688313</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>1.13</v>
@@ -8194,7 +9742,7 @@
         <v>180064.47</v>
       </c>
       <c r="J88" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K88">
         <v>11</v>
@@ -8235,8 +9783,23 @@
       <c r="W88">
         <v>-0.11</v>
       </c>
+      <c r="X88">
+        <v>14.93</v>
+      </c>
+      <c r="Y88">
+        <v>84.58</v>
+      </c>
+      <c r="Z88">
+        <v>17.07</v>
+      </c>
       <c r="AC88" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8244,22 +9807,25 @@
       <c r="AG88">
         <v>-2.84108829498291</v>
       </c>
-      <c r="AH88" t="s">
-        <v>180</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688343</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>-4.8</v>
@@ -8277,7 +9843,7 @@
         <v>213325.08</v>
       </c>
       <c r="J89" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -8318,8 +9884,23 @@
       <c r="W89">
         <v>-1.25</v>
       </c>
+      <c r="X89">
+        <v>13.32</v>
+      </c>
+      <c r="Y89">
+        <v>97.95999999999999</v>
+      </c>
+      <c r="Z89">
+        <v>17.6</v>
+      </c>
       <c r="AC89" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8327,22 +9908,25 @@
       <c r="AG89">
         <v>7.388820171356201</v>
       </c>
-      <c r="AH89" t="s">
-        <v>180</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688372</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>0.63</v>
@@ -8360,7 +9944,7 @@
         <v>39706.49</v>
       </c>
       <c r="J90" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K90">
         <v>4</v>
@@ -8401,8 +9985,23 @@
       <c r="W90">
         <v>-0.39</v>
       </c>
+      <c r="X90">
+        <v>-2.59</v>
+      </c>
+      <c r="Y90">
+        <v>83.78</v>
+      </c>
+      <c r="Z90">
+        <v>4.49</v>
+      </c>
       <c r="AC90" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8410,22 +10009,25 @@
       <c r="AG90">
         <v>4.014977931976318</v>
       </c>
-      <c r="AH90" t="s">
-        <v>180</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688502</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>-2.89</v>
@@ -8443,7 +10045,7 @@
         <v>34240.75</v>
       </c>
       <c r="J91" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K91">
         <v>22</v>
@@ -8484,8 +10086,23 @@
       <c r="W91">
         <v>-0.64</v>
       </c>
+      <c r="X91">
+        <v>-2.11</v>
+      </c>
+      <c r="Y91">
+        <v>447.22</v>
+      </c>
+      <c r="Z91">
+        <v>2.11</v>
+      </c>
       <c r="AC91" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8493,22 +10110,25 @@
       <c r="AG91">
         <v>66.78569793701172</v>
       </c>
-      <c r="AH91" t="s">
-        <v>180</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688521</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>-9.869999999999999</v>
@@ -8526,7 +10146,7 @@
         <v>315932.31</v>
       </c>
       <c r="J92" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K92">
         <v>5</v>
@@ -8567,8 +10187,23 @@
       <c r="W92">
         <v>-0.23</v>
       </c>
+      <c r="X92">
+        <v>-0.11</v>
+      </c>
+      <c r="Y92">
+        <v>155.95</v>
+      </c>
+      <c r="Z92">
+        <v>9.58</v>
+      </c>
       <c r="AC92" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>1</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8576,22 +10211,25 @@
       <c r="AG92">
         <v>-1.776594519615173</v>
       </c>
-      <c r="AH92" t="s">
-        <v>180</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688584</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>1.81</v>
@@ -8609,7 +10247,7 @@
         <v>34106.58</v>
       </c>
       <c r="J93" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K93">
         <v>10</v>
@@ -8650,8 +10288,23 @@
       <c r="W93">
         <v>-0.08</v>
       </c>
+      <c r="X93">
+        <v>-4.98</v>
+      </c>
+      <c r="Y93">
+        <v>27.12</v>
+      </c>
+      <c r="Z93">
+        <v>0.44</v>
+      </c>
       <c r="AC93" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8659,22 +10312,25 @@
       <c r="AG93">
         <v>3.551659345626831</v>
       </c>
-      <c r="AH93" t="s">
-        <v>180</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688629</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>7.27</v>
@@ -8692,7 +10348,7 @@
         <v>302301.7</v>
       </c>
       <c r="J94" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -8733,8 +10389,23 @@
       <c r="W94">
         <v>-1.1</v>
       </c>
+      <c r="X94">
+        <v>-0.64</v>
+      </c>
+      <c r="Y94">
+        <v>84.3</v>
+      </c>
+      <c r="Z94">
+        <v>0.11</v>
+      </c>
       <c r="AC94" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8742,22 +10413,25 @@
       <c r="AG94">
         <v>59.00555419921875</v>
       </c>
-      <c r="AH94" t="s">
-        <v>180</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688652</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>-3.74</v>
@@ -8775,7 +10449,7 @@
         <v>32109.23</v>
       </c>
       <c r="J95" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K95">
         <v>3</v>
@@ -8816,8 +10490,23 @@
       <c r="W95">
         <v>-0.46</v>
       </c>
+      <c r="X95">
+        <v>-0.53</v>
+      </c>
+      <c r="Y95">
+        <v>77.5</v>
+      </c>
+      <c r="Z95">
+        <v>3.1</v>
+      </c>
       <c r="AC95" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8825,22 +10514,25 @@
       <c r="AG95">
         <v>4.88193941116333</v>
       </c>
-      <c r="AH95" t="s">
-        <v>180</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688709</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>-4.55</v>
@@ -8858,7 +10550,7 @@
         <v>53870.43</v>
       </c>
       <c r="J96" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K96">
         <v>3</v>
@@ -8899,8 +10591,23 @@
       <c r="W96">
         <v>-0.19</v>
       </c>
+      <c r="X96">
+        <v>-0.09</v>
+      </c>
+      <c r="Y96">
+        <v>48.01</v>
+      </c>
+      <c r="Z96">
+        <v>5.91</v>
+      </c>
       <c r="AC96" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -8908,22 +10615,25 @@
       <c r="AG96">
         <v>-2.71076774597168</v>
       </c>
-      <c r="AH96" t="s">
-        <v>180</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688798</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>0.33</v>
@@ -8941,7 +10651,7 @@
         <v>37853.24</v>
       </c>
       <c r="J97" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K97">
         <v>5</v>
@@ -8982,8 +10692,23 @@
       <c r="W97">
         <v>-0.24</v>
       </c>
+      <c r="X97">
+        <v>-0.15</v>
+      </c>
+      <c r="Y97">
+        <v>101.9</v>
+      </c>
+      <c r="Z97">
+        <v>6.17</v>
+      </c>
       <c r="AC97" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -8991,8 +10716,11 @@
       <c r="AG97">
         <v>4.255765438079834</v>
       </c>
-      <c r="AH97" t="s">
-        <v>180</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
